--- a/data/nira.xlsx
+++ b/data/nira.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="260" windowWidth="13060" windowHeight="11560" tabRatio="500"/>
+    <workbookView xWindow="40" yWindow="260" windowWidth="33540" windowHeight="18580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="315">
   <si>
     <t>Section</t>
   </si>
@@ -211,9 +211,6 @@
     <t>trial</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Setting not reported</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Unclear</t>
   </si>
   <si>
-    <t>Not reported</t>
-  </si>
-  <si>
     <t>government</t>
   </si>
   <si>
@@ -607,9 +601,6 @@
     <t>Mean Age</t>
   </si>
   <si>
-    <t>Median Ave</t>
-  </si>
-  <si>
     <t>median_age</t>
   </si>
   <si>
@@ -944,6 +935,36 @@
   </si>
   <si>
     <t>Age Range (upper limit)</t>
+  </si>
+  <si>
+    <t>Other (cormorbities)</t>
+  </si>
+  <si>
+    <t>Other (study setting)</t>
+  </si>
+  <si>
+    <t>Other (funding source)</t>
+  </si>
+  <si>
+    <t>Other (method of assessment)</t>
+  </si>
+  <si>
+    <t>Other (analysis reported)</t>
+  </si>
+  <si>
+    <t>Race not reported</t>
+  </si>
+  <si>
+    <t>Funding not reported</t>
+  </si>
+  <si>
+    <t>Adverse event not reported</t>
+  </si>
+  <si>
+    <t>Country not reported</t>
+  </si>
+  <si>
+    <t>Median Age</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1123,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1121,6 +1142,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1145,7 +1168,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="15" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="20">
     <cellStyle name="Bad" xfId="16" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1154,6 +1177,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="15" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1162,6 +1186,7 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="17" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1506,16 +1531,16 @@
   <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I90" sqref="I90"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="56" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
     <col min="14" max="14" width="11" style="4"/>
@@ -1547,33 +1572,33 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B2" s="13">
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
@@ -1582,13 +1607,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1599,13 +1624,13 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="13">
         <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>22</v>
@@ -1614,13 +1639,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1631,13 +1656,13 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="13">
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>22</v>
@@ -1646,13 +1671,13 @@
         <v>34</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1663,13 +1688,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="13">
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>22</v>
@@ -1678,13 +1703,13 @@
         <v>34</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1695,13 +1720,13 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="13">
         <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>22</v>
@@ -1710,13 +1735,13 @@
         <v>34</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1727,13 +1752,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1742,24 +1767,24 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -1768,24 +1793,24 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9">
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1794,24 +1819,24 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1820,24 +1845,24 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>310</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11">
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1846,24 +1871,24 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1872,24 +1897,24 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1898,24 +1923,24 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1924,24 +1949,24 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1950,24 +1975,24 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1976,24 +2001,24 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2002,24 +2027,24 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2028,24 +2053,24 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2054,24 +2079,24 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20">
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2080,24 +2105,24 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2106,24 +2131,24 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B22">
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -2132,13 +2157,13 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>305</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2318,13 +2343,13 @@
         <v>34</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>63</v>
+        <v>306</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2332,7 +2357,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2352,13 +2377,13 @@
         <v>34</v>
       </c>
       <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
@@ -2375,7 +2400,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -2384,13 +2409,13 @@
         <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2401,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
         <v>22</v>
@@ -2410,13 +2435,13 @@
         <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2427,7 +2452,7 @@
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -2436,13 +2461,13 @@
         <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2453,7 +2478,7 @@
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
         <v>22</v>
@@ -2462,13 +2487,13 @@
         <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2479,7 +2504,7 @@
         <v>16</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>22</v>
@@ -2488,16 +2513,16 @@
         <v>34</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2508,7 +2533,7 @@
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
         <v>22</v>
@@ -2517,13 +2542,13 @@
         <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2534,7 +2559,7 @@
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>22</v>
@@ -2543,13 +2568,13 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2560,7 +2585,7 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D37" t="s">
         <v>22</v>
@@ -2569,13 +2594,13 @@
         <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2586,7 +2611,7 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D38" t="s">
         <v>22</v>
@@ -2595,13 +2620,13 @@
         <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
       </c>
       <c r="H38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2612,7 +2637,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>22</v>
@@ -2621,13 +2646,13 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G39" t="s">
         <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2638,7 +2663,7 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D40" t="s">
         <v>22</v>
@@ -2647,13 +2672,13 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
       </c>
       <c r="H40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2664,7 +2689,7 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
         <v>22</v>
@@ -2673,13 +2698,13 @@
         <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
         <v>34</v>
       </c>
       <c r="H41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2690,7 +2715,7 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
         <v>22</v>
@@ -2699,13 +2724,13 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
         <v>34</v>
       </c>
       <c r="H42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2716,7 +2741,7 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
         <v>22</v>
@@ -2725,13 +2750,13 @@
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
       </c>
       <c r="H43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2742,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
         <v>22</v>
@@ -2751,13 +2776,13 @@
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s">
         <v>34</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2768,7 +2793,7 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
         <v>22</v>
@@ -2777,13 +2802,13 @@
         <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
       </c>
       <c r="H45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2794,7 +2819,7 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" t="s">
         <v>22</v>
@@ -2803,16 +2828,16 @@
         <v>34</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2823,7 +2848,7 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
         <v>22</v>
@@ -2832,24 +2857,24 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>72</v>
+        <v>313</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B48">
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -2858,24 +2883,24 @@
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G48" t="s">
         <v>34</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B49">
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2884,21 +2909,21 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H49" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B50">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -2907,21 +2932,21 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B51">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -2930,21 +2955,21 @@
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H51" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B52">
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -2953,24 +2978,24 @@
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>63</v>
+        <v>308</v>
       </c>
       <c r="H52" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B53">
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -2979,21 +3004,21 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="H53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B54">
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -3005,18 +3030,18 @@
         <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55">
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -3025,24 +3050,24 @@
         <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B56">
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -3051,24 +3076,24 @@
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B57">
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -3077,24 +3102,24 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58">
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -3103,27 +3128,27 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>63</v>
+        <v>309</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B59">
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -3132,13 +3157,13 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3149,10 +3174,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E60" t="s">
         <v>34</v>
@@ -3167,10 +3192,10 @@
         <v>34</v>
       </c>
       <c r="I60" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" t="s">
         <v>177</v>
-      </c>
-      <c r="J60" t="s">
-        <v>179</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -3190,10 +3215,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
@@ -3208,10 +3233,10 @@
         <v>34</v>
       </c>
       <c r="I61" t="s">
+        <v>175</v>
+      </c>
+      <c r="J61" t="s">
         <v>177</v>
-      </c>
-      <c r="J61" t="s">
-        <v>179</v>
       </c>
       <c r="K61" t="s">
         <v>14</v>
@@ -3231,10 +3256,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
@@ -3249,10 +3274,10 @@
         <v>34</v>
       </c>
       <c r="I62" t="s">
+        <v>175</v>
+      </c>
+      <c r="J62" t="s">
         <v>177</v>
-      </c>
-      <c r="J62" t="s">
-        <v>179</v>
       </c>
       <c r="K62" t="s">
         <v>54</v>
@@ -3272,10 +3297,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
@@ -3290,10 +3315,10 @@
         <v>34</v>
       </c>
       <c r="I63" t="s">
+        <v>176</v>
+      </c>
+      <c r="J63" t="s">
         <v>178</v>
-      </c>
-      <c r="J63" t="s">
-        <v>180</v>
       </c>
       <c r="K63" t="s">
         <v>13</v>
@@ -3313,10 +3338,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
@@ -3331,10 +3356,10 @@
         <v>34</v>
       </c>
       <c r="I64" t="s">
+        <v>176</v>
+      </c>
+      <c r="J64" t="s">
         <v>178</v>
-      </c>
-      <c r="J64" t="s">
-        <v>180</v>
       </c>
       <c r="K64" t="s">
         <v>14</v>
@@ -3355,10 +3380,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -3373,10 +3398,10 @@
         <v>34</v>
       </c>
       <c r="I65" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" t="s">
         <v>178</v>
-      </c>
-      <c r="J65" t="s">
-        <v>180</v>
       </c>
       <c r="K65" t="s">
         <v>54</v>
@@ -3391,34 +3416,34 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B66">
         <v>32</v>
       </c>
       <c r="C66" t="s">
+        <v>249</v>
+      </c>
+      <c r="D66" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" t="s">
+        <v>250</v>
+      </c>
+      <c r="J66" t="s">
         <v>252</v>
-      </c>
-      <c r="D66" t="s">
-        <v>182</v>
-      </c>
-      <c r="E66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>34</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s">
-        <v>34</v>
-      </c>
-      <c r="I66" t="s">
-        <v>253</v>
-      </c>
-      <c r="J66" t="s">
-        <v>255</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
@@ -3432,34 +3457,34 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B67">
         <v>32</v>
       </c>
       <c r="C67" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" t="s">
+        <v>180</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" t="s">
+        <v>34</v>
+      </c>
+      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="I67" t="s">
+        <v>250</v>
+      </c>
+      <c r="J67" t="s">
         <v>252</v>
-      </c>
-      <c r="D67" t="s">
-        <v>182</v>
-      </c>
-      <c r="E67" t="s">
-        <v>34</v>
-      </c>
-      <c r="F67" t="s">
-        <v>34</v>
-      </c>
-      <c r="G67" t="s">
-        <v>34</v>
-      </c>
-      <c r="H67" t="s">
-        <v>34</v>
-      </c>
-      <c r="I67" t="s">
-        <v>253</v>
-      </c>
-      <c r="J67" t="s">
-        <v>255</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
@@ -3473,16 +3498,16 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B68">
         <v>32</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
@@ -3497,10 +3522,10 @@
         <v>34</v>
       </c>
       <c r="I68" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J68" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
@@ -3514,16 +3539,16 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B69">
         <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
         <v>34</v>
@@ -3538,10 +3563,10 @@
         <v>34</v>
       </c>
       <c r="I69" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="J69" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
@@ -3561,28 +3586,28 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
+        <v>180</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
         <v>182</v>
       </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>184</v>
-      </c>
-      <c r="J70" t="s">
-        <v>186</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
@@ -3602,28 +3627,28 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
         <v>182</v>
       </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>184</v>
-      </c>
-      <c r="J71" t="s">
-        <v>186</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
@@ -3643,28 +3668,28 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
+        <v>180</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
         <v>182</v>
       </c>
-      <c r="E72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>184</v>
-      </c>
-      <c r="J72" t="s">
-        <v>186</v>
       </c>
       <c r="K72" t="s">
         <v>54</v>
@@ -3684,28 +3709,28 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="D73" t="s">
+        <v>180</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
+        <v>34</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s">
+        <v>34</v>
+      </c>
+      <c r="I73" t="s">
         <v>183</v>
       </c>
-      <c r="D73" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" t="s">
-        <v>34</v>
-      </c>
-      <c r="F73" t="s">
-        <v>34</v>
-      </c>
-      <c r="G73" t="s">
-        <v>34</v>
-      </c>
-      <c r="H73" t="s">
-        <v>34</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>185</v>
-      </c>
-      <c r="J73" t="s">
-        <v>187</v>
       </c>
       <c r="K73" t="s">
         <v>13</v>
@@ -3725,28 +3750,28 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" t="s">
+        <v>180</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s">
+        <v>34</v>
+      </c>
+      <c r="I74" t="s">
         <v>183</v>
       </c>
-      <c r="D74" t="s">
-        <v>182</v>
-      </c>
-      <c r="E74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s">
-        <v>34</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>185</v>
-      </c>
-      <c r="J74" t="s">
-        <v>187</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
@@ -3766,28 +3791,28 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>34</v>
+      </c>
+      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="H75" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" t="s">
         <v>183</v>
       </c>
-      <c r="D75" t="s">
-        <v>182</v>
-      </c>
-      <c r="E75" t="s">
-        <v>34</v>
-      </c>
-      <c r="F75" t="s">
-        <v>34</v>
-      </c>
-      <c r="G75" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>185</v>
-      </c>
-      <c r="J75" t="s">
-        <v>187</v>
       </c>
       <c r="K75" t="s">
         <v>54</v>
@@ -3807,10 +3832,10 @@
         <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>34</v>
@@ -3825,10 +3850,10 @@
         <v>34</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>13</v>
@@ -3848,10 +3873,10 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>34</v>
@@ -3866,10 +3891,10 @@
         <v>34</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K77" t="s">
         <v>14</v>
@@ -3889,10 +3914,10 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>34</v>
@@ -3907,10 +3932,10 @@
         <v>34</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K78" t="s">
         <v>54</v>
@@ -3930,28 +3955,28 @@
         <v>13</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
         <v>261</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I79" t="s">
-        <v>264</v>
-      </c>
       <c r="J79" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K79" t="s">
         <v>13</v>
@@ -3971,28 +3996,28 @@
         <v>13</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I80" t="s">
         <v>261</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I80" t="s">
-        <v>264</v>
-      </c>
       <c r="J80" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
@@ -4012,28 +4037,28 @@
         <v>13</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I81" t="s">
         <v>261</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I81" t="s">
-        <v>264</v>
-      </c>
       <c r="J81" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K81" t="s">
         <v>54</v>
@@ -4053,10 +4078,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>34</v>
@@ -4071,10 +4096,10 @@
         <v>34</v>
       </c>
       <c r="I82" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J82" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K82" t="s">
         <v>13</v>
@@ -4094,10 +4119,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>34</v>
@@ -4112,10 +4137,10 @@
         <v>34</v>
       </c>
       <c r="I83" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J83" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K83" t="s">
         <v>14</v>
@@ -4135,10 +4160,10 @@
         <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>34</v>
@@ -4153,10 +4178,10 @@
         <v>34</v>
       </c>
       <c r="I84" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J84" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K84" t="s">
         <v>54</v>
@@ -4170,16 +4195,16 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B85">
         <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>34</v>
@@ -4194,36 +4219,36 @@
         <v>34</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B86">
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>34</v>
@@ -4238,80 +4263,80 @@
         <v>34</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K86" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M86" t="s">
+        <v>204</v>
+      </c>
+      <c r="N86" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="N86" s="4" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B87">
         <v>25</v>
       </c>
       <c r="C87" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K87" t="s">
         <v>201</v>
       </c>
-      <c r="D87" t="s">
-        <v>305</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K87" t="s">
-        <v>204</v>
-      </c>
       <c r="L87" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M87" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>34</v>
@@ -4326,80 +4351,80 @@
         <v>34</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K88" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M88" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B89">
         <v>26</v>
       </c>
       <c r="C89" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" t="s">
+        <v>302</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M89" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D89" t="s">
-        <v>305</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>214</v>
-      </c>
       <c r="N89" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B90">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D90" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>34</v>
@@ -4414,36 +4439,36 @@
         <v>34</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K90" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B91">
         <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>34</v>
@@ -4458,36 +4483,36 @@
         <v>34</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K91" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B92">
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>34</v>
@@ -4502,36 +4527,36 @@
         <v>34</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K92" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B93">
         <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>34</v>
@@ -4546,36 +4571,36 @@
         <v>34</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K93" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B94">
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>34</v>
@@ -4590,36 +4615,36 @@
         <v>34</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K94" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M94" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N94" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="N94" s="4" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B95">
         <v>26</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>34</v>
@@ -4634,36 +4659,36 @@
         <v>34</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K95" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B96">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>34</v>
@@ -4678,36 +4703,36 @@
         <v>34</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K96" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B97" s="4">
         <v>33</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>34</v>
@@ -4722,36 +4747,36 @@
         <v>34</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K97" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="L97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M97" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="L97" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>239</v>
-      </c>
       <c r="N97" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B98" s="4">
         <v>33</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>34</v>
@@ -4766,36 +4791,36 @@
         <v>34</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B99" s="4">
         <v>33</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>34</v>
@@ -4810,36 +4835,36 @@
         <v>34</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B100" s="4">
         <v>33</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>34</v>
@@ -4854,36 +4879,36 @@
         <v>34</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B101" s="4">
         <v>33</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>34</v>
@@ -4898,36 +4923,36 @@
         <v>34</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B102" s="4">
         <v>33</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>34</v>
@@ -4942,80 +4967,80 @@
         <v>34</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B103" s="4">
         <v>33</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H103" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I103" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K103" s="4" t="s">
-        <v>244</v>
-      </c>
       <c r="L103" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B104" s="4">
         <v>33</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>34</v>
@@ -5030,36 +5055,36 @@
         <v>34</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B105" s="4">
         <v>34</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>34</v>
@@ -5074,58 +5099,58 @@
         <v>34</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>21</v>
       </c>
       <c r="C106" t="s">
+        <v>189</v>
+      </c>
+      <c r="D106" t="s">
+        <v>302</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" t="s">
+        <v>192</v>
+      </c>
+      <c r="J106" t="s">
+        <v>190</v>
+      </c>
+      <c r="K106" t="s">
         <v>191</v>
       </c>
-      <c r="D106" t="s">
-        <v>305</v>
-      </c>
-      <c r="E106" t="s">
-        <v>34</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H106" t="s">
-        <v>34</v>
-      </c>
-      <c r="I106" t="s">
-        <v>194</v>
-      </c>
-      <c r="J106" t="s">
-        <v>192</v>
-      </c>
-      <c r="K106" t="s">
-        <v>193</v>
-      </c>
       <c r="L106" t="s">
         <v>34</v>
       </c>
@@ -5133,87 +5158,87 @@
         <v>34</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B107">
         <v>21</v>
       </c>
       <c r="C107" t="s">
+        <v>189</v>
+      </c>
+      <c r="D107" t="s">
+        <v>302</v>
+      </c>
+      <c r="E107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" t="s">
+        <v>34</v>
+      </c>
+      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="H107" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" t="s">
+        <v>314</v>
+      </c>
+      <c r="J107" t="s">
+        <v>193</v>
+      </c>
+      <c r="K107" t="s">
         <v>191</v>
       </c>
-      <c r="D107" t="s">
-        <v>305</v>
-      </c>
-      <c r="E107" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" t="s">
-        <v>34</v>
-      </c>
-      <c r="G107" t="s">
-        <v>34</v>
-      </c>
-      <c r="H107" t="s">
-        <v>34</v>
-      </c>
-      <c r="I107" t="s">
-        <v>195</v>
-      </c>
-      <c r="J107" t="s">
+      <c r="L107" t="s">
+        <v>34</v>
+      </c>
+      <c r="M107" t="s">
+        <v>34</v>
+      </c>
+      <c r="N107" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="K107" t="s">
-        <v>193</v>
-      </c>
-      <c r="L107" t="s">
-        <v>34</v>
-      </c>
-      <c r="M107" t="s">
-        <v>34</v>
-      </c>
-      <c r="N107" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B108">
         <v>21</v>
       </c>
       <c r="C108" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" t="s">
+        <v>302</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s">
+        <v>304</v>
+      </c>
+      <c r="J108" t="s">
+        <v>194</v>
+      </c>
+      <c r="K108" t="s">
         <v>191</v>
       </c>
-      <c r="D108" t="s">
-        <v>305</v>
-      </c>
-      <c r="E108" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s">
-        <v>34</v>
-      </c>
-      <c r="I108" t="s">
-        <v>307</v>
-      </c>
-      <c r="J108" t="s">
-        <v>197</v>
-      </c>
-      <c r="K108" t="s">
-        <v>193</v>
-      </c>
       <c r="L108" t="s">
         <v>34</v>
       </c>
@@ -5221,43 +5246,43 @@
         <v>34</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>21</v>
       </c>
       <c r="C109" t="s">
+        <v>189</v>
+      </c>
+      <c r="D109" t="s">
+        <v>302</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" t="s">
+        <v>303</v>
+      </c>
+      <c r="J109" t="s">
+        <v>195</v>
+      </c>
+      <c r="K109" t="s">
         <v>191</v>
       </c>
-      <c r="D109" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" t="s">
-        <v>34</v>
-      </c>
-      <c r="F109" t="s">
-        <v>34</v>
-      </c>
-      <c r="G109" t="s">
-        <v>34</v>
-      </c>
-      <c r="H109" t="s">
-        <v>34</v>
-      </c>
-      <c r="I109" t="s">
-        <v>306</v>
-      </c>
-      <c r="J109" t="s">
-        <v>198</v>
-      </c>
-      <c r="K109" t="s">
-        <v>193</v>
-      </c>
       <c r="L109" t="s">
         <v>34</v>
       </c>
@@ -5265,21 +5290,21 @@
         <v>34</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B110">
         <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D110" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>34</v>
@@ -5294,13 +5319,13 @@
         <v>34</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>34</v>
@@ -5309,21 +5334,21 @@
         <v>34</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B111">
         <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D111" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>34</v>
@@ -5338,57 +5363,57 @@
         <v>34</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="J111" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N111" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N111" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B112">
         <v>28</v>
       </c>
       <c r="C112" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" t="s">
+        <v>302</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I112" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D112" t="s">
-        <v>305</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="J112" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>34</v>
@@ -5397,21 +5422,21 @@
         <v>34</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B113">
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>34</v>
@@ -5426,13 +5451,13 @@
         <v>34</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L113" s="3" t="s">
         <v>34</v>
@@ -5441,7 +5466,7 @@
         <v>34</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5504,13 +5529,13 @@
         <v>17</v>
       </c>
       <c r="C116" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D116" t="s">
         <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F116" t="s">
         <v>13</v>
@@ -5530,13 +5555,13 @@
         <v>17</v>
       </c>
       <c r="C117" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D117" t="s">
         <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F117" t="s">
         <v>14</v>
@@ -5550,19 +5575,19 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B118">
         <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -5591,19 +5616,19 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B119">
         <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -5632,19 +5657,19 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B120">
         <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D120" t="s">
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
         <v>54</v>
@@ -6401,19 +6426,19 @@
     </row>
     <row r="149" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="A149" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B149">
         <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F149" t="s">
         <v>34</v>
@@ -6430,7 +6455,7 @@
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1">
@@ -6441,13 +6466,13 @@
         <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F150" t="s">
         <v>34</v>
@@ -6472,13 +6497,13 @@
         <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F151" t="s">
         <v>34</v>
@@ -6686,7 +6711,7 @@
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -6720,69 +6745,69 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" t="s">
         <v>282</v>
       </c>
-      <c r="C1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D1" t="s">
-        <v>285</v>
-      </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B2" s="7">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B3" s="7">
         <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B4">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6790,19 +6815,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B5">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -6810,19 +6835,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B6">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -6830,19 +6855,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B7">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -6850,19 +6875,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B8">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6870,19 +6895,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B9">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -6890,19 +6915,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B10">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -6910,16 +6935,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B11">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data/nira.xlsx
+++ b/data/nira.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="316">
   <si>
     <t>Section</t>
   </si>
@@ -325,9 +325,6 @@
     <t>baseline characteristic</t>
   </si>
   <si>
-    <t>What was the perfcent of male participants?</t>
-  </si>
-  <si>
     <t>male</t>
   </si>
   <si>
@@ -715,9 +712,6 @@
     <t>Specify</t>
   </si>
   <si>
-    <t>Were patients class-naïve?</t>
-  </si>
-  <si>
     <t>class_naive</t>
   </si>
   <si>
@@ -965,6 +959,15 @@
   </si>
   <si>
     <t>Median Age</t>
+  </si>
+  <si>
+    <t>Were patients class-naive?</t>
+  </si>
+  <si>
+    <t>Units (duration)</t>
+  </si>
+  <si>
+    <t>What was the percent of male participants?</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1142,6 +1145,8 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -1168,7 +1173,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="15" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="22">
     <cellStyle name="Bad" xfId="16" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1178,6 +1183,7 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="15" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1187,6 +1193,7 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="17" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1531,8 +1538,8 @@
   <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I108" sqref="I108"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1572,22 +1579,22 @@
         <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1598,7 +1605,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>22</v>
@@ -1607,13 +1614,13 @@
         <v>34</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1630,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>22</v>
@@ -1639,13 +1646,13 @@
         <v>34</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
@@ -1662,7 +1669,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>22</v>
@@ -1671,13 +1678,13 @@
         <v>34</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
@@ -1694,7 +1701,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>22</v>
@@ -1703,13 +1710,13 @@
         <v>34</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13"/>
@@ -1726,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>22</v>
@@ -1735,13 +1742,13 @@
         <v>34</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1758,7 +1765,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1767,13 +1774,13 @@
         <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1784,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -1793,13 +1800,13 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1810,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -1819,13 +1826,13 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1836,7 +1843,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1845,13 +1852,13 @@
         <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G10" t="s">
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1862,7 +1869,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1871,13 +1878,13 @@
         <v>34</v>
       </c>
       <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
         <v>126</v>
-      </c>
-      <c r="G11" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1888,7 +1895,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1897,13 +1904,13 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1914,7 +1921,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -1923,13 +1930,13 @@
         <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
         <v>34</v>
       </c>
       <c r="H13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1940,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1949,13 +1956,13 @@
         <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1966,7 +1973,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1975,13 +1982,13 @@
         <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
         <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1992,7 +1999,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -2001,13 +2008,13 @@
         <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2018,7 +2025,7 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -2027,13 +2034,13 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
         <v>34</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2044,7 +2051,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -2053,13 +2060,13 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" t="s">
         <v>34</v>
       </c>
       <c r="H18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2070,7 +2077,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -2079,13 +2086,13 @@
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2096,7 +2103,7 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
         <v>22</v>
@@ -2105,13 +2112,13 @@
         <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" t="s">
         <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2122,7 +2129,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
         <v>22</v>
@@ -2131,13 +2138,13 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" t="s">
         <v>34</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2148,7 +2155,7 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -2157,13 +2164,13 @@
         <v>34</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2343,13 +2350,13 @@
         <v>34</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G28" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -2357,7 +2364,7 @@
       <c r="L28" s="11"/>
       <c r="M28" s="11"/>
       <c r="N28" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2513,16 +2520,16 @@
         <v>34</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2568,7 +2575,7 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -2834,10 +2841,10 @@
         <v>34</v>
       </c>
       <c r="H46" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2857,7 +2864,7 @@
         <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G47" t="s">
         <v>34</v>
@@ -2868,13 +2875,13 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B48">
         <v>29</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
@@ -2883,24 +2890,24 @@
         <v>34</v>
       </c>
       <c r="F48" t="s">
+        <v>149</v>
+      </c>
+      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="H48" t="s">
         <v>150</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
-      </c>
-      <c r="H48" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B49">
         <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" t="s">
         <v>22</v>
@@ -2909,21 +2916,21 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B50">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
         <v>22</v>
@@ -2932,21 +2939,21 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B51">
         <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" t="s">
         <v>22</v>
@@ -2955,21 +2962,21 @@
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B52">
         <v>29</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
@@ -2978,24 +2985,24 @@
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H52" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B53">
         <v>29</v>
       </c>
       <c r="C53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D53" t="s">
         <v>22</v>
@@ -3004,21 +3011,21 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54">
         <v>29</v>
       </c>
       <c r="C54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
         <v>22</v>
@@ -3030,18 +3037,18 @@
         <v>48</v>
       </c>
       <c r="H54" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55">
         <v>30</v>
       </c>
       <c r="C55" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
         <v>22</v>
@@ -3050,24 +3057,24 @@
         <v>34</v>
       </c>
       <c r="F55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
       </c>
       <c r="H55" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B56">
         <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D56" t="s">
         <v>22</v>
@@ -3076,24 +3083,24 @@
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G56" t="s">
         <v>34</v>
       </c>
       <c r="H56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57">
         <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" t="s">
         <v>22</v>
@@ -3102,24 +3109,24 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G57" t="s">
         <v>34</v>
       </c>
       <c r="H57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58">
         <v>30</v>
       </c>
       <c r="C58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -3128,27 +3135,27 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G58" t="s">
         <v>34</v>
       </c>
       <c r="H58" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B59">
         <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -3157,13 +3164,13 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
       </c>
       <c r="H59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3174,11 +3181,11 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
+        <v>178</v>
+      </c>
+      <c r="D60" t="s">
         <v>179</v>
       </c>
-      <c r="D60" t="s">
-        <v>180</v>
-      </c>
       <c r="E60" t="s">
         <v>34</v>
       </c>
@@ -3192,10 +3199,10 @@
         <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -3215,11 +3222,11 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" t="s">
         <v>179</v>
       </c>
-      <c r="D61" t="s">
-        <v>180</v>
-      </c>
       <c r="E61" t="s">
         <v>34</v>
       </c>
@@ -3233,10 +3240,10 @@
         <v>34</v>
       </c>
       <c r="I61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K61" t="s">
         <v>14</v>
@@ -3256,11 +3263,11 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="s">
         <v>179</v>
       </c>
-      <c r="D62" t="s">
-        <v>180</v>
-      </c>
       <c r="E62" t="s">
         <v>34</v>
       </c>
@@ -3274,10 +3281,10 @@
         <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K62" t="s">
         <v>54</v>
@@ -3297,11 +3304,11 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D63" t="s">
         <v>179</v>
       </c>
-      <c r="D63" t="s">
-        <v>180</v>
-      </c>
       <c r="E63" t="s">
         <v>34</v>
       </c>
@@ -3315,10 +3322,10 @@
         <v>34</v>
       </c>
       <c r="I63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K63" t="s">
         <v>13</v>
@@ -3338,11 +3345,11 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" t="s">
         <v>179</v>
       </c>
-      <c r="D64" t="s">
-        <v>180</v>
-      </c>
       <c r="E64" t="s">
         <v>34</v>
       </c>
@@ -3356,10 +3363,10 @@
         <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K64" t="s">
         <v>14</v>
@@ -3380,11 +3387,11 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" t="s">
         <v>179</v>
       </c>
-      <c r="D65" t="s">
-        <v>180</v>
-      </c>
       <c r="E65" t="s">
         <v>34</v>
       </c>
@@ -3398,10 +3405,10 @@
         <v>34</v>
       </c>
       <c r="I65" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K65" t="s">
         <v>54</v>
@@ -3416,16 +3423,16 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66">
         <v>32</v>
       </c>
       <c r="C66" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" t="s">
         <v>34</v>
@@ -3440,10 +3447,10 @@
         <v>34</v>
       </c>
       <c r="I66" t="s">
+        <v>248</v>
+      </c>
+      <c r="J66" t="s">
         <v>250</v>
-      </c>
-      <c r="J66" t="s">
-        <v>252</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
@@ -3457,16 +3464,16 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B67">
         <v>32</v>
       </c>
       <c r="C67" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E67" t="s">
         <v>34</v>
@@ -3481,10 +3488,10 @@
         <v>34</v>
       </c>
       <c r="I67" t="s">
+        <v>248</v>
+      </c>
+      <c r="J67" t="s">
         <v>250</v>
-      </c>
-      <c r="J67" t="s">
-        <v>252</v>
       </c>
       <c r="K67" t="s">
         <v>14</v>
@@ -3498,34 +3505,34 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B68">
         <v>32</v>
       </c>
       <c r="C68" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" t="s">
         <v>249</v>
       </c>
-      <c r="D68" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>251</v>
-      </c>
-      <c r="J68" t="s">
-        <v>253</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
@@ -3539,34 +3546,34 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B69">
         <v>32</v>
       </c>
       <c r="C69" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="H69" t="s">
+        <v>34</v>
+      </c>
+      <c r="I69" t="s">
         <v>249</v>
       </c>
-      <c r="D69" t="s">
-        <v>180</v>
-      </c>
-      <c r="E69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>34</v>
-      </c>
-      <c r="G69" t="s">
-        <v>34</v>
-      </c>
-      <c r="H69" t="s">
-        <v>34</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>251</v>
-      </c>
-      <c r="J69" t="s">
-        <v>253</v>
       </c>
       <c r="K69" t="s">
         <v>14</v>
@@ -3586,28 +3593,28 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
+      <c r="I70" t="s">
         <v>181</v>
       </c>
-      <c r="D70" t="s">
-        <v>180</v>
-      </c>
-      <c r="E70" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" t="s">
-        <v>182</v>
-      </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
@@ -3627,28 +3634,28 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
+        <v>180</v>
+      </c>
+      <c r="D71" t="s">
+        <v>179</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>34</v>
+      </c>
+      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
+      </c>
+      <c r="I71" t="s">
         <v>181</v>
       </c>
-      <c r="D71" t="s">
-        <v>180</v>
-      </c>
-      <c r="E71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" t="s">
-        <v>182</v>
-      </c>
       <c r="J71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
@@ -3668,28 +3675,28 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" t="s">
+        <v>179</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" t="s">
+        <v>34</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" t="s">
         <v>181</v>
       </c>
-      <c r="D72" t="s">
-        <v>180</v>
-      </c>
-      <c r="E72" t="s">
-        <v>34</v>
-      </c>
-      <c r="F72" t="s">
-        <v>34</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" t="s">
-        <v>182</v>
-      </c>
       <c r="J72" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s">
         <v>54</v>
@@ -3709,10 +3716,10 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
@@ -3727,10 +3734,10 @@
         <v>34</v>
       </c>
       <c r="I73" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J73" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K73" t="s">
         <v>13</v>
@@ -3750,10 +3757,10 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
         <v>34</v>
@@ -3768,10 +3775,10 @@
         <v>34</v>
       </c>
       <c r="I74" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J74" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K74" t="s">
         <v>14</v>
@@ -3791,10 +3798,10 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
         <v>34</v>
@@ -3809,10 +3816,10 @@
         <v>34</v>
       </c>
       <c r="I75" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s">
         <v>54</v>
@@ -3832,28 +3839,28 @@
         <v>13</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>13</v>
@@ -3873,28 +3880,28 @@
         <v>13</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="K77" t="s">
         <v>14</v>
@@ -3914,28 +3921,28 @@
         <v>13</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="K78" t="s">
         <v>54</v>
@@ -3955,10 +3962,10 @@
         <v>13</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>34</v>
@@ -3973,10 +3980,10 @@
         <v>34</v>
       </c>
       <c r="I79" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J79" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K79" t="s">
         <v>13</v>
@@ -3996,10 +4003,10 @@
         <v>13</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>34</v>
@@ -4014,10 +4021,10 @@
         <v>34</v>
       </c>
       <c r="I80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J80" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K80" t="s">
         <v>14</v>
@@ -4037,10 +4044,10 @@
         <v>13</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>34</v>
@@ -4055,10 +4062,10 @@
         <v>34</v>
       </c>
       <c r="I81" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J81" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K81" t="s">
         <v>54</v>
@@ -4078,10 +4085,10 @@
         <v>13</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>34</v>
@@ -4096,10 +4103,10 @@
         <v>34</v>
       </c>
       <c r="I82" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J82" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K82" t="s">
         <v>13</v>
@@ -4119,10 +4126,10 @@
         <v>13</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>34</v>
@@ -4137,10 +4144,10 @@
         <v>34</v>
       </c>
       <c r="I83" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K83" t="s">
         <v>14</v>
@@ -4160,10 +4167,10 @@
         <v>13</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>34</v>
@@ -4178,10 +4185,10 @@
         <v>34</v>
       </c>
       <c r="I84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J84" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K84" t="s">
         <v>54</v>
@@ -4195,60 +4202,60 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B85">
         <v>25</v>
       </c>
       <c r="C85" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" t="s">
+        <v>300</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K85" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D85" t="s">
-        <v>302</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K85" s="3" t="s">
-        <v>199</v>
-      </c>
       <c r="L85" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B86">
         <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>34</v>
@@ -4263,36 +4270,36 @@
         <v>34</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L86" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M86" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B87">
         <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>34</v>
@@ -4307,36 +4314,36 @@
         <v>34</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L87" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B88">
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D88" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>34</v>
@@ -4351,80 +4358,80 @@
         <v>34</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L88" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M88" t="s">
+        <v>205</v>
+      </c>
+      <c r="N88" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="N88" s="4" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B89">
         <v>26</v>
       </c>
       <c r="C89" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" t="s">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I89" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D89" t="s">
-        <v>302</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90">
         <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D90" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>34</v>
@@ -4439,80 +4446,80 @@
         <v>34</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="L90" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B91">
         <v>26</v>
       </c>
       <c r="C91" t="s">
+        <v>207</v>
+      </c>
+      <c r="D91" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D91" t="s">
-        <v>302</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B92">
         <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D92" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>34</v>
@@ -4527,80 +4534,80 @@
         <v>34</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K92" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L92" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B93">
         <v>26</v>
       </c>
       <c r="C93" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I93" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D93" t="s">
-        <v>302</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="J93" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K93" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L93" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B94">
         <v>26</v>
       </c>
       <c r="C94" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D94" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>34</v>
@@ -4615,80 +4622,80 @@
         <v>34</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B95">
         <v>26</v>
       </c>
       <c r="C95" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I95" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D95" t="s">
-        <v>302</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="J95" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B96">
         <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>34</v>
@@ -4703,36 +4710,36 @@
         <v>34</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>34</v>
       </c>
       <c r="K96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>34</v>
       </c>
       <c r="M96" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="N96" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="N96" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B97" s="4">
         <v>33</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>34</v>
@@ -4747,36 +4754,36 @@
         <v>34</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L97" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B98" s="4">
         <v>33</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>34</v>
@@ -4791,36 +4798,36 @@
         <v>34</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L98" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B99" s="4">
         <v>33</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>34</v>
@@ -4835,36 +4842,36 @@
         <v>34</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L99" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B100" s="4">
         <v>33</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>34</v>
@@ -4879,36 +4886,36 @@
         <v>34</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L100" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M100" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B101" s="4">
         <v>33</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>34</v>
@@ -4923,80 +4930,80 @@
         <v>34</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M101" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B102" s="4">
         <v>33</v>
       </c>
       <c r="C102" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="K102" s="4" t="s">
-        <v>240</v>
-      </c>
       <c r="L102" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M102" s="10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B103" s="4">
         <v>33</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>34</v>
@@ -5011,36 +5018,36 @@
         <v>34</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="L103" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B104" s="4">
         <v>33</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>34</v>
@@ -5055,36 +5062,36 @@
         <v>34</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>200</v>
+        <v>314</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>34</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B105" s="4">
         <v>34</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>34</v>
@@ -5099,22 +5106,22 @@
         <v>34</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K105" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="L105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N105" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="L105" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5125,32 +5132,32 @@
         <v>21</v>
       </c>
       <c r="C106" t="s">
+        <v>188</v>
+      </c>
+      <c r="D106" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" t="s">
+        <v>34</v>
+      </c>
+      <c r="H106" t="s">
+        <v>34</v>
+      </c>
+      <c r="I106" t="s">
+        <v>191</v>
+      </c>
+      <c r="J106" t="s">
         <v>189</v>
       </c>
-      <c r="D106" t="s">
-        <v>302</v>
-      </c>
-      <c r="E106" t="s">
-        <v>34</v>
-      </c>
-      <c r="F106" t="s">
-        <v>34</v>
-      </c>
-      <c r="G106" t="s">
-        <v>34</v>
-      </c>
-      <c r="H106" t="s">
-        <v>34</v>
-      </c>
-      <c r="I106" t="s">
-        <v>192</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>190</v>
       </c>
-      <c r="K106" t="s">
-        <v>191</v>
-      </c>
       <c r="L106" t="s">
         <v>34</v>
       </c>
@@ -5158,7 +5165,7 @@
         <v>34</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5169,10 +5176,10 @@
         <v>21</v>
       </c>
       <c r="C107" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
         <v>34</v>
@@ -5187,13 +5194,13 @@
         <v>34</v>
       </c>
       <c r="I107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="J107" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K107" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L107" t="s">
         <v>34</v>
@@ -5202,7 +5209,7 @@
         <v>34</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5213,31 +5220,31 @@
         <v>21</v>
       </c>
       <c r="C108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D108" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>34</v>
+      </c>
+      <c r="G108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" t="s">
         <v>302</v>
       </c>
-      <c r="E108" t="s">
-        <v>34</v>
-      </c>
-      <c r="F108" t="s">
-        <v>34</v>
-      </c>
-      <c r="G108" t="s">
-        <v>34</v>
-      </c>
-      <c r="H108" t="s">
-        <v>34</v>
-      </c>
-      <c r="I108" t="s">
-        <v>304</v>
-      </c>
       <c r="J108" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L108" t="s">
         <v>34</v>
@@ -5246,7 +5253,7 @@
         <v>34</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5257,10 +5264,10 @@
         <v>21</v>
       </c>
       <c r="C109" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D109" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E109" t="s">
         <v>34</v>
@@ -5275,22 +5282,22 @@
         <v>34</v>
       </c>
       <c r="I109" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J109" t="s">
+        <v>194</v>
+      </c>
+      <c r="K109" t="s">
+        <v>190</v>
+      </c>
+      <c r="L109" t="s">
+        <v>34</v>
+      </c>
+      <c r="M109" t="s">
+        <v>34</v>
+      </c>
+      <c r="N109" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="K109" t="s">
-        <v>191</v>
-      </c>
-      <c r="L109" t="s">
-        <v>34</v>
-      </c>
-      <c r="M109" t="s">
-        <v>34</v>
-      </c>
-      <c r="N109" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5301,31 +5308,31 @@
         <v>28</v>
       </c>
       <c r="C110" t="s">
+        <v>219</v>
+      </c>
+      <c r="D110" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D110" t="s">
-        <v>302</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="J110" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L110" s="3" t="s">
         <v>34</v>
@@ -5334,7 +5341,7 @@
         <v>34</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5345,10 +5352,10 @@
         <v>28</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>34</v>
@@ -5363,13 +5370,13 @@
         <v>34</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L111" s="3" t="s">
         <v>34</v>
@@ -5378,7 +5385,7 @@
         <v>34</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5389,10 +5396,10 @@
         <v>28</v>
       </c>
       <c r="C112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D112" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>34</v>
@@ -5407,13 +5414,13 @@
         <v>34</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L112" s="3" t="s">
         <v>34</v>
@@ -5422,7 +5429,7 @@
         <v>34</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5433,10 +5440,10 @@
         <v>28</v>
       </c>
       <c r="C113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D113" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>34</v>
@@ -5451,22 +5458,22 @@
         <v>34</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J113" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N113" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N113" s="4" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5575,19 +5582,19 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B118">
         <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F118" t="s">
         <v>13</v>
@@ -5616,19 +5623,19 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119">
         <v>31</v>
       </c>
       <c r="C119" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
         <v>14</v>
@@ -5657,19 +5664,19 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B120">
         <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>231</v>
+        <v>313</v>
       </c>
       <c r="D120" t="s">
         <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
         <v>54</v>
@@ -6432,13 +6439,13 @@
         <v>19</v>
       </c>
       <c r="C149" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="D149" t="s">
         <v>9</v>
       </c>
       <c r="E149" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F149" t="s">
         <v>34</v>
@@ -6455,7 +6462,7 @@
       <c r="L149"/>
       <c r="M149"/>
       <c r="N149" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="150" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1">
@@ -6466,13 +6473,13 @@
         <v>22</v>
       </c>
       <c r="C150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D150" t="s">
         <v>9</v>
       </c>
       <c r="E150" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F150" t="s">
         <v>34</v>
@@ -6497,13 +6504,13 @@
         <v>23</v>
       </c>
       <c r="C151" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D151" t="s">
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F151" t="s">
         <v>34</v>
@@ -6711,7 +6718,7 @@
       <c r="L157"/>
       <c r="M157"/>
       <c r="N157" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -6745,69 +6752,69 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" t="s">
         <v>278</v>
       </c>
-      <c r="B1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>280</v>
       </c>
-      <c r="D1" t="s">
-        <v>282</v>
-      </c>
       <c r="E1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1">
       <c r="A2" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B2" s="7">
         <v>32</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" s="7" customFormat="1">
       <c r="A3" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B3" s="7">
         <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -6815,19 +6822,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B5">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -6835,19 +6842,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6">
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -6855,19 +6862,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B7">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -6875,19 +6882,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B8">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -6895,19 +6902,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B9">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F9">
         <v>6</v>
@@ -6915,19 +6922,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B10">
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -6935,16 +6942,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B11">
         <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
